--- a/biology/Histoire de la zoologie et de la botanique/Jean_Roux/Jean_Roux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Roux/Jean_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Roux est un zoologiste suisse, né le 5 mars 1876 à Genève et mort le 1er décembre 1939.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Genève auprès d’Émile Yung (1854-1918) et obtient son titre de docteur en 1899. Il se consacre d’abord aux protozoaires et fait ses recherches postdoctorales à Berlin. En 1902, il devient conservateur du Naturhistorisches Museum de Bâle ce qui l’oblige à s’orienter vers l’herpétologie notamment parce que l’institution conserve les riches collections rassemblées par son prédécesseur Fritz Müller (1834-1895). Bien qu’il soit invité à venir travailler au Muséum Senckenberg, il préfère demeurer à Bâle.
 Il fait plusieurs voyages notamment dans des îles entre la Nouvelle-Guinée et l’Australie en 1907-1908, puis en Nouvelle-Calédonie et dans les îles Loyauté en 1911-1912 aux côtés de Fritz Sarasin (1859-1942). Il quitte ses fonctions en 1937 et est remplacé par Lothar Hendrich Emil Wilhelm Forcart (1902-1990).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Pays-Bas NUKAT WorldCat 
